--- a/leads fulltimeexperience.xlsx
+++ b/leads fulltimeexperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bot-mensagem-wpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E9CB4-B5D6-40F3-AB37-4851666CF06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F47828-EC9F-4E68-A5C6-56F1A8492CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/leads fulltimeexperience.xlsx
+++ b/leads fulltimeexperience.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bot-mensagem-wpp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\testeMessage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F47828-EC9F-4E68-A5C6-56F1A8492CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D483CDAB-CC92-4786-BD8B-A25E669C74BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
     <t>Nome</t>
   </si>
@@ -28,69 +28,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>elisnunes2013@gmail.com</t>
-  </si>
-  <si>
-    <t>Simone C Marinelo</t>
-  </si>
-  <si>
-    <t>simonecmarinelo@gmail.com</t>
-  </si>
-  <si>
-    <t>12 981810290</t>
-  </si>
-  <si>
-    <t>solange souza</t>
-  </si>
-  <si>
-    <t>esporteveraocaragua@gmail.com</t>
-  </si>
-  <si>
-    <t>juanverdun.br@gmail.com</t>
-  </si>
-  <si>
-    <t>Mateus Costa</t>
-  </si>
-  <si>
-    <t>matheus.pdk@hotmail.com</t>
-  </si>
-  <si>
-    <t>GLAUCIA HELENA CRUZ</t>
-  </si>
-  <si>
-    <t>glaucelenacruz@gmail.com</t>
-  </si>
-  <si>
-    <t>+5512996748062</t>
-  </si>
-  <si>
-    <t>universa.infinito@gmail.com</t>
-  </si>
-  <si>
-    <t>adrianamerbina@gmail.com</t>
-  </si>
-  <si>
-    <t>+5511985017290</t>
-  </si>
-  <si>
-    <t>verissimo2604@gmail.com</t>
-  </si>
-  <si>
-    <t>stangecontabil@gmail.com</t>
-  </si>
-  <si>
-    <t>Luciana Leão Marques</t>
-  </si>
-  <si>
-    <t>leao_luci@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ana Nery Queiroz dos Reis Souza</t>
-  </si>
-  <si>
-    <t>ananery.queiroz@gmail.com</t>
-  </si>
-  <si>
     <t>Ericka Steola Velasco</t>
   </si>
   <si>
@@ -112,9 +49,6 @@
     <t>natalia.brevilheri26@gmail.com</t>
   </si>
   <si>
-    <t>+5512991383519</t>
-  </si>
-  <si>
     <t>vinimachadozica@gmail.com</t>
   </si>
   <si>
@@ -199,60 +133,6 @@
     <t>12988367044</t>
   </si>
   <si>
-    <t>Elisângela</t>
-  </si>
-  <si>
-    <t>12991688846</t>
-  </si>
-  <si>
-    <t>12981294913</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>13998038407</t>
-  </si>
-  <si>
-    <t>Geraldine Salazar</t>
-  </si>
-  <si>
-    <t>Geral1salazar@gmail.com</t>
-  </si>
-  <si>
-    <t>13998067763</t>
-  </si>
-  <si>
-    <t>12988664548</t>
-  </si>
-  <si>
-    <t>Juan Manuel Verdun</t>
-  </si>
-  <si>
-    <t>13 99803-8407</t>
-  </si>
-  <si>
-    <t>Adriana Muñoz</t>
-  </si>
-  <si>
-    <t>Marcello Veríssimo</t>
-  </si>
-  <si>
-    <t>12996877341</t>
-  </si>
-  <si>
-    <t>Kátia Stange</t>
-  </si>
-  <si>
-    <t>12981283647</t>
-  </si>
-  <si>
-    <t>12991561212</t>
-  </si>
-  <si>
-    <t>12981093346</t>
-  </si>
-  <si>
     <t>12981810286</t>
   </si>
   <si>
@@ -1538,6 +1418,9 @@
   </si>
   <si>
     <t>12981450046</t>
+  </si>
+  <si>
+    <t>12991383519</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1768,7 @@
   <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1903,1862 +1786,1732 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>87</v>
+      <c r="A22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>34</v>
+      <c r="A23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>35</v>
+      <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B37" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="6" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="C41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="6" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B42" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="C43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C44" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="6" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B45" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="C70" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="9" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
+      <c r="B74" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="9" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="B75" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="9" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+      <c r="B76" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="9" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+      <c r="B77" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="9" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="B78" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="9" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="B79" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="B80" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="9" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+      <c r="B81" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="C81" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="10" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+      <c r="B82" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="10" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+      <c r="B83" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="10" t="s">
+    </row>
+    <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+      <c r="B84" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="10" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+      <c r="B85" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="10" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+      <c r="B86" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="C87" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="C90" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="C91" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="C92" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="C93" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="C94" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="C96" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="C97" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="C98" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="C99" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="C100" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="C101" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="C102" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="C103" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="C104" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="C105" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="C106" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="C107" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="C108" s="13" t="s">
         <v>321</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="C109" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="C110" s="12" t="s">
         <v>327</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="C111" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="C112" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="C113" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="C115" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="C116" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="C117" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="C118" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="C119" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="C120" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="C121" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="C122" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="C123" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="C124" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="C125" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="C126" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="C127" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="C128" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="C129" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="C130" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="C131" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="C132" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="C133" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="C134" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="C135" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="C136" s="13" t="s">
         <v>405</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="C137" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="C138" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="C139" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="C140" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="C141" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="C142" s="13" t="s">
         <v>423</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="C143" s="13" t="s">
         <v>426</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="C144" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="C145" s="13" t="s">
         <v>432</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="C146" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="C147" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="C148" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="C149" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="C150" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="C151" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="C152" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B153" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="C153" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="C154" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="C155" s="13" t="s">
         <v>462</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="C156" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C156" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>

--- a/leads fulltimeexperience.xlsx
+++ b/leads fulltimeexperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\testeMessage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D483CDAB-CC92-4786-BD8B-A25E669C74BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88273A1-E0DE-4F64-9EC8-835AB7E95945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>Nome</t>
   </si>
@@ -28,45 +28,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>Ericka Steola Velasco</t>
-  </si>
-  <si>
-    <t>ericka_velasco@hotmail.com</t>
-  </si>
-  <si>
-    <t>Caio Horaguti</t>
-  </si>
-  <si>
-    <t>choraguti@gmail.com</t>
-  </si>
-  <si>
-    <t>cesaraugusto@ifsp.edu.br</t>
-  </si>
-  <si>
-    <t>NATALIA BREVILHERI DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>natalia.brevilheri26@gmail.com</t>
-  </si>
-  <si>
-    <t>vinimachadozica@gmail.com</t>
-  </si>
-  <si>
-    <t>12 997876766</t>
-  </si>
-  <si>
-    <t>Carolina Gomes de Oliveira Solci</t>
-  </si>
-  <si>
-    <t>nutricionistacarolinasolci@gmail.com</t>
-  </si>
-  <si>
-    <t>Davi.cabelera@gmail.com</t>
-  </si>
-  <si>
-    <t>lucasmariotto14@gmail.com</t>
-  </si>
-  <si>
     <t>atendimento@ctitecnologias.com.br</t>
   </si>
   <si>
@@ -133,54 +94,6 @@
     <t>12988367044</t>
   </si>
   <si>
-    <t>12981810286</t>
-  </si>
-  <si>
-    <t>12991199788</t>
-  </si>
-  <si>
-    <t>Michele Martins Pereira Soares</t>
-  </si>
-  <si>
-    <t>michelys.m25@gmail.com</t>
-  </si>
-  <si>
-    <t>11964950532</t>
-  </si>
-  <si>
-    <t>Cesar Augusto Ilódio Alves</t>
-  </si>
-  <si>
-    <t>12981470560</t>
-  </si>
-  <si>
-    <t>Vinicius da Silva Machado</t>
-  </si>
-  <si>
-    <t>12997519930</t>
-  </si>
-  <si>
-    <t>Danilo Nepomuceno Carvalho</t>
-  </si>
-  <si>
-    <t>danilonepo@hotmail.com</t>
-  </si>
-  <si>
-    <t>12974053593</t>
-  </si>
-  <si>
-    <t>Davi Gomes da Silva Júnior</t>
-  </si>
-  <si>
-    <t>12974020147</t>
-  </si>
-  <si>
-    <t>Lucas Matheus Mariotto Moreira</t>
-  </si>
-  <si>
-    <t>12997135227</t>
-  </si>
-  <si>
     <t>William Bruno</t>
   </si>
   <si>
@@ -253,9 +166,6 @@
     <t>Fernandosantosfernandes.9@gmail.com</t>
   </si>
   <si>
-    <t>997462901</t>
-  </si>
-  <si>
     <t>Gislaine dos Santos Silva Garcez</t>
   </si>
   <si>
@@ -1420,7 +1330,7 @@
     <t>12981450046</t>
   </si>
   <si>
-    <t>12991383519</t>
+    <t>12997462901</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1529,9 +1439,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,7 +1675,7 @@
   <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1786,60 +1693,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1850,564 +1757,564 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>466</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="6" t="s">
+    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -2415,10 +2322,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -2426,10 +2333,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2437,10 +2344,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -2448,10 +2355,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -2459,131 +2366,131 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C74" s="12" t="s">
@@ -2591,65 +2498,65 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C80" s="12" t="s">
@@ -2657,10 +2564,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C81" s="12" t="s">
@@ -2668,21 +2575,21 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C83" s="12" t="s">
@@ -2690,153 +2597,153 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -2844,10 +2751,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -2855,43 +2762,43 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="11" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -2899,120 +2806,120 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="11" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="11" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -3020,32 +2927,32 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="11" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -3053,10 +2960,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>347</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -3064,131 +2971,131 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="11" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="11" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="11" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="11" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="11" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -3196,10 +3103,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C130" s="12" t="s">
@@ -3207,21 +3114,21 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C132" s="12" t="s">
@@ -3229,10 +3136,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C133" s="12" t="s">
@@ -3240,21 +3147,21 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="11" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -3262,236 +3169,136 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="12" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="11" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="11" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="12" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="11" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="11" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="12" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
+    <row r="147" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
